--- a/CodingDojo/Refactorings.xlsx
+++ b/CodingDojo/Refactorings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlutz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Azure\CodeDojo\CodingDojo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{D690688A-1165-420F-BB49-705487DD6207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3FB50C-93BF-4401-9236-958479714AFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A5B05DD3-3949-4694-B648-A1AEC5B16AD4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5B05DD3-3949-4694-B648-A1AEC5B16AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>Wo</t>
   </si>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,9 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,7 +503,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,66 +529,66 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
